--- a/Summary_COEM.xlsx
+++ b/Summary_COEM.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\hc-ut40346c\NHI5HC\hieunguyen\0000_Project\001_Prj\01_COEM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mr.TD\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{E5A8E46A-E67A-4999-8A81-F13C2804DD28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="6540" tabRatio="428"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COEM_Package_20200302" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,8 @@
     <sheet name="Template" sheetId="3" r:id="rId3"/>
     <sheet name="Table" sheetId="4" r:id="rId4"/>
     <sheet name="Template_Weekly_Report" sheetId="5" r:id="rId5"/>
-    <sheet name="Check_List" sheetId="6" r:id="rId6"/>
+    <sheet name="Template_Weekly_Report (2)" sheetId="7" r:id="rId6"/>
+    <sheet name="Check_List" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">COEM_Package_20200302!$B$2:$AH$60</definedName>
@@ -52,28 +54,74 @@
     <definedName name="Z_A239C479_B2DC_4DCA_A930_634A835634B0_.wvu.FilterData" localSheetId="0" hidden="1">COEM_Package_20200302!$B$2:$AG$78</definedName>
     <definedName name="Z_A51EBE84_CBC8_46F9_AE0C_B070690415D4_.wvu.FilterData" localSheetId="0" hidden="1">COEM_Package_20200302!$Q$2:$Q$105</definedName>
     <definedName name="Z_BBAE6BD0_8958_494E_83AF_3471AF879750_.wvu.FilterData" localSheetId="0" hidden="1">COEM_Package_20200302!$B$2:$AG$60</definedName>
+    <definedName name="Z_C28B8C76_215A_4052_8346_32215D9BAFA9_.wvu.Cols" localSheetId="0" hidden="1">COEM_Package_20200302!$M:$N</definedName>
+    <definedName name="Z_C28B8C76_215A_4052_8346_32215D9BAFA9_.wvu.FilterData" localSheetId="0" hidden="1">COEM_Package_20200302!$B$2:$AH$60</definedName>
+    <definedName name="Z_C28B8C76_215A_4052_8346_32215D9BAFA9_.wvu.FilterData" localSheetId="2" hidden="1">Template!$B$2:$R$14</definedName>
     <definedName name="Z_D5F9A537_3EF6_4FA9_94D8_ABB431F3ED7F_.wvu.FilterData" localSheetId="0" hidden="1">COEM_Package_20200302!$Q$2:$Q$105</definedName>
     <definedName name="Z_E8991E61_6D05_4C3B_B928_FD787FF86F58_.wvu.FilterData" localSheetId="0" hidden="1">COEM_Package_20200302!$Q$2:$Q$105</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Mr.TD - Personal View" guid="{C28B8C76-215A-4052-8346-32215D9BAFA9}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" tabRatio="428" activeSheetId="5"/>
+    <customWorkbookView name="EXTERNAL Ly Chung (Ban Vien, RBVH/EPS45) - Personal View" guid="{60D2C030-4E31-4E07-8E1C-44D2EE84B177}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1186" tabRatio="428" activeSheetId="1"/>
+    <customWorkbookView name="EXTERNAL Nguyen Tuan Duong (Ban Vien, RBVH/EPS45) - Personal View" guid="{7E0EA425-A420-4443-B9E0-CDF0AA9E5D09}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
+    <customWorkbookView name="EXTERNAL Do Phu Loc (Ban Vien, RBVH/EPS45) - Personal View" guid="{72A6EB0A-84D5-4B8A-AC51-54CCD061630B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" tabRatio="428" activeSheetId="1"/>
+    <customWorkbookView name="EXTERNAL Nguyen Kim Thanh (Ban Vien, RBVH/EPS45) - Personal View" guid="{4E06BDBF-2CED-473B-850B-2A6C7311FF41}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
+    <customWorkbookView name="EXTERNAL Nguyen Tai Hau (Ban Vien, RBVH/EPS45) - Personal View" guid="{7ECC2B8E-6A82-42F5-8AB0-4A51C54EA5EC}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" tabRatio="428" activeSheetId="1"/>
     <customWorkbookView name="EXTERNAL Nguyen Trung Hieu (Ban Vien, RBVH/EPS45) - Personal View" guid="{250915DF-0B97-45D7-B29D-7EED4C89C1C1}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="EXTERNAL Nguyen Tai Hau (Ban Vien, RBVH/EPS45) - Personal View" guid="{7ECC2B8E-6A82-42F5-8AB0-4A51C54EA5EC}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" tabRatio="428" activeSheetId="1"/>
-    <customWorkbookView name="EXTERNAL Nguyen Kim Thanh (Ban Vien, RBVH/EPS45) - Personal View" guid="{4E06BDBF-2CED-473B-850B-2A6C7311FF41}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="EXTERNAL Do Phu Loc (Ban Vien, RBVH/EPS45) - Personal View" guid="{72A6EB0A-84D5-4B8A-AC51-54CCD061630B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" tabRatio="428" activeSheetId="1"/>
-    <customWorkbookView name="EXTERNAL Nguyen Tuan Duong (Ban Vien, RBVH/EPS45) - Personal View" guid="{7E0EA425-A420-4443-B9E0-CDF0AA9E5D09}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="EXTERNAL Ly Chung (Ban Vien, RBVH/EPS45) - Personal View" guid="{60D2C030-4E31-4E07-8E1C-44D2EE84B177}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1186" tabRatio="428" activeSheetId="1"/>
   </customWorkbookViews>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>Mr.TD</author>
     <author>EXTERNAL Nguyen Tuan Duong (Ban Vien, RBVH/EPS45)</author>
   </authors>
   <commentList>
-    <comment ref="I21" authorId="0" guid="{7EE9DC19-1016-46DE-8BE2-3130D62EDD67}" shapeId="0">
+    <comment ref="F20" authorId="0" shapeId="0" xr:uid="{78BC2174-D4C6-482A-BCF5-9E9D32CFF91F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mr.TD:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Check Component Name No.13, 18</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I21" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -103,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="243">
   <si>
     <t>No</t>
   </si>
@@ -871,11 +919,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -948,6 +996,25 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1013,7 +1080,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1135,6 +1202,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1343,1536 +1419,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{40348369-CCB6-40BF-99C0-32ADBE322A17}" diskRevisions="1" revisionId="150" version="27">
-  <header guid="{74431293-53F3-49CE-ABFF-73DC8F6F7793}" dateTime="2020-03-05T10:22:27" maxSheetId="7" userName="EXTERNAL Nguyen Tuan Duong (Ban Vien, RBVH/EPS45)" r:id="rId1">
-    <sheetIdMap count="6">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{787E104E-50D2-4281-B45D-59ECD890272A}" dateTime="2020-03-05T10:23:35" maxSheetId="7" userName="EXTERNAL Nguyen Tuan Duong (Ban Vien, RBVH/EPS45)" r:id="rId2">
-    <sheetIdMap count="6">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{D19C0442-885F-44AE-BCE8-ACB9974A7204}" dateTime="2020-03-05T10:53:27" maxSheetId="7" userName="EXTERNAL Nguyen Trung Hieu (Ban Vien, RBVH/EPS45)" r:id="rId3" minRId="4" maxRId="8">
-    <sheetIdMap count="6">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{39750E3E-BF69-4115-85E6-BA23E7E162B2}" dateTime="2020-03-05T10:56:17" maxSheetId="7" userName="EXTERNAL Nguyen Trung Hieu (Ban Vien, RBVH/EPS45)" r:id="rId4" minRId="11">
-    <sheetIdMap count="6">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{A318881E-23E7-428A-A513-000CEC7C398E}" dateTime="2020-03-05T10:56:30" maxSheetId="7" userName="EXTERNAL Nguyen Trung Hieu (Ban Vien, RBVH/EPS45)" r:id="rId5" minRId="14">
-    <sheetIdMap count="6">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{F92278BF-0B54-4F44-913D-0A88A0CDCA0C}" dateTime="2020-03-05T10:57:17" maxSheetId="7" userName="EXTERNAL Do Phu Loc (Ban Vien, RBVH/EPS45)" r:id="rId6" minRId="15" maxRId="22">
-    <sheetIdMap count="6">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{56A4280C-A9B2-4D94-9808-96540308EC9C}" dateTime="2020-03-05T10:57:38" maxSheetId="7" userName="EXTERNAL Nguyen Trung Hieu (Ban Vien, RBVH/EPS45)" r:id="rId7" minRId="26" maxRId="27">
-    <sheetIdMap count="6">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{F3A4C507-453C-4413-A48F-6A1C13EC87A1}" dateTime="2020-03-05T11:02:37" maxSheetId="7" userName="EXTERNAL Do Phu Loc (Ban Vien, RBVH/EPS45)" r:id="rId8" minRId="28" maxRId="30">
-    <sheetIdMap count="6">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{6628388D-D323-4244-A899-F71A32B11672}" dateTime="2020-03-05T11:31:15" maxSheetId="7" userName="EXTERNAL Nguyen Trung Hieu (Ban Vien, RBVH/EPS45)" r:id="rId9" minRId="34" maxRId="36">
-    <sheetIdMap count="6">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{BD504273-E626-47D6-8FE3-24A5A9545363}" dateTime="2020-03-05T11:33:51" maxSheetId="7" userName="EXTERNAL Nguyen Trung Hieu (Ban Vien, RBVH/EPS45)" r:id="rId10" minRId="39" maxRId="43">
-    <sheetIdMap count="6">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{C78B693B-36C8-41BE-A772-366E634F2278}" dateTime="2020-03-05T11:44:22" maxSheetId="7" userName="EXTERNAL Do Phu Loc (Ban Vien, RBVH/EPS45)" r:id="rId11" minRId="44" maxRId="48">
-    <sheetIdMap count="6">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{E967EB54-C11C-4DF8-98D6-8B664B8CCBE5}" dateTime="2020-03-05T11:45:42" maxSheetId="7" userName="EXTERNAL Do Phu Loc (Ban Vien, RBVH/EPS45)" r:id="rId12" minRId="52" maxRId="53">
-    <sheetIdMap count="6">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{FDCF01E7-8F1F-4ACA-8B6E-6098CA3DD0D3}" dateTime="2020-03-05T13:08:49" maxSheetId="7" userName="EXTERNAL Nguyen Kim Thanh (Ban Vien, RBVH/EPS45)" r:id="rId13" minRId="57" maxRId="66">
-    <sheetIdMap count="6">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{CB4F6AA4-DB91-48CB-B7DC-75AE96698C7D}" dateTime="2020-03-05T13:24:34" maxSheetId="7" userName="EXTERNAL Do Phu Loc (Ban Vien, RBVH/EPS45)" r:id="rId14" minRId="70">
-    <sheetIdMap count="6">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{9C2A4EE2-4759-46C4-B791-C79DB58A6FFC}" dateTime="2020-03-05T13:44:41" maxSheetId="7" userName="EXTERNAL Nguyen Tai Hau (Ban Vien, RBVH/EPS45)" r:id="rId15" minRId="74" maxRId="81">
-    <sheetIdMap count="6">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{CF1C6362-5644-449E-986C-8291A2838E67}" dateTime="2020-03-05T13:45:21" maxSheetId="7" userName="EXTERNAL Nguyen Tai Hau (Ban Vien, RBVH/EPS45)" r:id="rId16">
-    <sheetIdMap count="6">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{FB33A9F0-952E-49F0-AF89-EC157DF70D1B}" dateTime="2020-03-05T13:45:52" maxSheetId="7" userName="EXTERNAL Nguyen Tai Hau (Ban Vien, RBVH/EPS45)" r:id="rId17" minRId="88" maxRId="89">
-    <sheetIdMap count="6">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{6EBA35DD-5DAA-4247-83BE-146EBC958DD9}" dateTime="2020-03-05T13:46:11" maxSheetId="7" userName="EXTERNAL Nguyen Tai Hau (Ban Vien, RBVH/EPS45)" r:id="rId18" minRId="90">
-    <sheetIdMap count="6">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{861837A5-9501-437D-9ECA-E28B191C7DF9}" dateTime="2020-03-05T14:03:42" maxSheetId="7" userName="EXTERNAL Nguyen Tai Hau (Ban Vien, RBVH/EPS45)" r:id="rId19" minRId="91" maxRId="93">
-    <sheetIdMap count="6">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{519D7FB4-E00B-44C1-8892-70AB274FFEA2}" dateTime="2020-03-05T14:03:56" maxSheetId="7" userName="EXTERNAL Nguyen Trung Hieu (Ban Vien, RBVH/EPS45)" r:id="rId20" minRId="97">
-    <sheetIdMap count="6">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{4711499D-1D3F-4264-8AF8-02E96382EBF4}" dateTime="2020-03-05T14:10:24" maxSheetId="7" userName="EXTERNAL Nguyen Trung Hieu (Ban Vien, RBVH/EPS45)" r:id="rId21" minRId="100">
-    <sheetIdMap count="6">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{86765A73-13F9-4F06-AE75-35AD412DD5D5}" dateTime="2020-03-05T14:22:18" maxSheetId="7" userName="EXTERNAL Do Phu Loc (Ban Vien, RBVH/EPS45)" r:id="rId22" minRId="103" maxRId="111">
-    <sheetIdMap count="6">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{E9587295-4F81-4CB8-93B1-723DCB931BD6}" dateTime="2020-03-05T14:50:49" maxSheetId="7" userName="EXTERNAL Nguyen Trung Hieu (Ban Vien, RBVH/EPS45)" r:id="rId23" minRId="115" maxRId="116">
-    <sheetIdMap count="6">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{A15101F5-964E-47CE-88E3-956132EBA606}" dateTime="2020-03-05T14:51:19" maxSheetId="7" userName="EXTERNAL Nguyen Tai Hau (Ban Vien, RBVH/EPS45)" r:id="rId24">
-    <sheetIdMap count="6">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{D7DB0C6A-B51A-49ED-BC76-9D3864DB150D}" dateTime="2020-03-05T14:57:17" maxSheetId="7" userName="EXTERNAL Nguyen Kim Thanh (Ban Vien, RBVH/EPS45)" r:id="rId25" minRId="122" maxRId="129">
-    <sheetIdMap count="6">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{E2751506-0EB7-48EC-9B7D-DAAB524708E2}" dateTime="2020-03-05T16:22:04" maxSheetId="7" userName="EXTERNAL Nguyen Kim Thanh (Ban Vien, RBVH/EPS45)" r:id="rId26" minRId="133" maxRId="134">
-    <sheetIdMap count="6">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{40348369-CCB6-40BF-99C0-32ADBE322A17}" dateTime="2020-03-05T17:37:52" maxSheetId="7" userName="EXTERNAL Do Phu Loc (Ban Vien, RBVH/EPS45)" r:id="rId27" minRId="138" maxRId="147">
-    <sheetIdMap count="6">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-    </sheetIdMap>
-  </header>
-</headers>
-</file>
-
-<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
-</file>
-
-<file path=xl/revisions/revisionLog10.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="39" sId="1" quotePrefix="1">
-    <oc r="F46" t="inlineStr">
-      <is>
-        <t>rb\as\cnms_core\app\dcom\RBAPLCust\src\Common</t>
-      </is>
-    </oc>
-    <nc r="F46" t="inlineStr">
-      <is>
-        <t>rb\as\cnms_core\app\dcom\RBAPLCust\src\common</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="40" sId="1" quotePrefix="1">
-    <oc r="F47" t="inlineStr">
-      <is>
-        <t>rb\as\cnms_core\app\dcom\RBAPLCust\src\Common</t>
-      </is>
-    </oc>
-    <nc r="F47" t="inlineStr">
-      <is>
-        <t>rb\as\cnms_core\app\dcom\RBAPLCust\src\common</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="41" sId="1" quotePrefix="1">
-    <oc r="F48" t="inlineStr">
-      <is>
-        <t>rb\as\cnms_core\app\dcom\RBAPLCust\src\Common</t>
-      </is>
-    </oc>
-    <nc r="F48" t="inlineStr">
-      <is>
-        <t>rb\as\cnms_core\app\dcom\RBAPLCust\src\common</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="42" sId="1" quotePrefix="1">
-    <oc r="F49" t="inlineStr">
-      <is>
-        <t>rb\as\cnms_core\app\dcom\RBAPLCust\src\Common</t>
-      </is>
-    </oc>
-    <nc r="F49" t="inlineStr">
-      <is>
-        <t>rb\as\cnms_core\app\dcom\RBAPLCust\src\common</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="43" sId="1" quotePrefix="1">
-    <oc r="F50" t="inlineStr">
-      <is>
-        <t>rb\as\cnms_core\app\dcom\RBAPLCust\src\Common</t>
-      </is>
-    </oc>
-    <nc r="F50" t="inlineStr">
-      <is>
-        <t>rb\as\cnms_core\app\dcom\RBAPLCust\src\common</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog11.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="44" sId="1">
-    <nc r="P31" t="inlineStr">
-      <is>
-        <t>loc.do-phu</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="45" sId="1">
-    <nc r="P32" t="inlineStr">
-      <is>
-        <t>loc.do-phu</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="46" sId="1">
-    <nc r="P33" t="inlineStr">
-      <is>
-        <t>loc.do-phu</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="47" sId="1">
-    <nc r="P34" t="inlineStr">
-      <is>
-        <t>loc.do-phu</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="48" sId="1">
-    <nc r="P35" t="inlineStr">
-      <is>
-        <t>loc.do-phu</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{72A6EB0A-84D5-4B8A-AC51-54CCD061630B}" action="delete"/>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_72A6EB0A_84D5_4B8A_AC51_54CCD061630B_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>COEM_Package_20200302!$M:$N</formula>
-    <oldFormula>COEM_Package_20200302!$M:$N</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_72A6EB0A_84D5_4B8A_AC51_54CCD061630B_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>COEM_Package_20200302!$B$2:$AH$60</formula>
-    <oldFormula>COEM_Package_20200302!$B$2:$AH$60</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="3" customView="1" name="Z_72A6EB0A_84D5_4B8A_AC51_54CCD061630B_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Template!$B$2:$R$14</formula>
-    <oldFormula>Template!$B$2:$R$14</oldFormula>
-  </rdn>
-  <rcv guid="{72A6EB0A-84D5-4B8A-AC51-54CCD061630B}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog12.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="52" sId="1">
-    <nc r="P36" t="inlineStr">
-      <is>
-        <t>loc.do-phu</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="53" sId="1">
-    <nc r="P37" t="inlineStr">
-      <is>
-        <t>loc.do-phu</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{72A6EB0A-84D5-4B8A-AC51-54CCD061630B}" action="delete"/>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_72A6EB0A_84D5_4B8A_AC51_54CCD061630B_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>COEM_Package_20200302!$M:$N</formula>
-    <oldFormula>COEM_Package_20200302!$M:$N</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_72A6EB0A_84D5_4B8A_AC51_54CCD061630B_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>COEM_Package_20200302!$B$2:$AH$60</formula>
-    <oldFormula>COEM_Package_20200302!$B$2:$AH$60</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="3" customView="1" name="Z_72A6EB0A_84D5_4B8A_AC51_54CCD061630B_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Template!$B$2:$R$14</formula>
-    <oldFormula>Template!$B$2:$R$14</oldFormula>
-  </rdn>
-  <rcv guid="{72A6EB0A-84D5-4B8A-AC51-54CCD061630B}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog13.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="57" sId="1">
-    <nc r="U19">
-      <v>395</v>
-    </nc>
-  </rcc>
-  <rcc rId="58" sId="1">
-    <nc r="W19">
-      <v>3</v>
-    </nc>
-  </rcc>
-  <rcc rId="59" sId="1">
-    <oc r="X19" t="inlineStr">
-      <is>
-        <t>N/A</t>
-      </is>
-    </oc>
-    <nc r="X19" t="inlineStr">
-      <is>
-        <t>Ready for review</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="60" sId="1" numFmtId="19">
-    <nc r="AA19">
-      <v>43895</v>
-    </nc>
-  </rcc>
-  <rcc rId="61" sId="1" numFmtId="19">
-    <nc r="AB19">
-      <v>43895</v>
-    </nc>
-  </rcc>
-  <rcc rId="62" sId="1">
-    <nc r="AC19" t="inlineStr">
-      <is>
-        <t>OK</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="63" sId="1">
-    <nc r="AD19">
-      <v>100</v>
-    </nc>
-  </rcc>
-  <rcc rId="64" sId="1">
-    <nc r="AE19">
-      <v>100</v>
-    </nc>
-  </rcc>
-  <rcc rId="65" sId="1">
-    <nc r="AF19">
-      <v>100</v>
-    </nc>
-  </rcc>
-  <rcc rId="66" sId="1" numFmtId="19">
-    <nc r="AA18">
-      <v>43895</v>
-    </nc>
-  </rcc>
-  <rcv guid="{4E06BDBF-2CED-473B-850B-2A6C7311FF41}" action="delete"/>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_4E06BDBF_2CED_473B_850B_2A6C7311FF41_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>COEM_Package_20200302!$M:$N</formula>
-    <oldFormula>COEM_Package_20200302!$M:$N</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_4E06BDBF_2CED_473B_850B_2A6C7311FF41_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>COEM_Package_20200302!$Q$2:$Q$105</formula>
-    <oldFormula>COEM_Package_20200302!$Q$2:$Q$105</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="3" customView="1" name="Z_4E06BDBF_2CED_473B_850B_2A6C7311FF41_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Template!$B$2:$R$14</formula>
-    <oldFormula>Template!$B$2:$R$14</oldFormula>
-  </rdn>
-  <rcv guid="{4E06BDBF-2CED-473B-850B-2A6C7311FF41}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog14.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rfmt sheetId="1" sqref="T31" start="0" length="0">
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rcc rId="70" sId="1" odxf="1" dxf="1">
-    <oc r="T32">
-      <v>164</v>
-    </oc>
-    <nc r="T32">
-      <v>196</v>
-    </nc>
-    <odxf>
-      <alignment horizontal="left" vertical="top" readingOrder="0"/>
-    </odxf>
-    <ndxf>
-      <alignment horizontal="general" vertical="bottom" readingOrder="0"/>
-    </ndxf>
-  </rcc>
-  <rfmt sheetId="1" sqref="T33" start="0" length="0">
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="T34" start="0" length="0">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="T35" start="0" length="0">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="T36" start="0" length="0">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="T37" start="0" length="0">
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="T38" start="0" length="0">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="T39" start="0" length="0">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="T40" start="0" length="0">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="T41" start="0" length="0">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="T42" start="0" length="0">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="T43" start="0" length="0">
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="T44" start="0" length="0">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="T45" start="0" length="0">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rcv guid="{72A6EB0A-84D5-4B8A-AC51-54CCD061630B}" action="delete"/>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_72A6EB0A_84D5_4B8A_AC51_54CCD061630B_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>COEM_Package_20200302!$M:$N</formula>
-    <oldFormula>COEM_Package_20200302!$M:$N</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_72A6EB0A_84D5_4B8A_AC51_54CCD061630B_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>COEM_Package_20200302!$B$2:$AH$60</formula>
-    <oldFormula>COEM_Package_20200302!$B$2:$AH$60</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="3" customView="1" name="Z_72A6EB0A_84D5_4B8A_AC51_54CCD061630B_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Template!$B$2:$R$14</formula>
-    <oldFormula>Template!$B$2:$R$14</oldFormula>
-  </rdn>
-  <rcv guid="{72A6EB0A-84D5-4B8A-AC51-54CCD061630B}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog15.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="74" sId="1">
-    <oc r="X46" t="inlineStr">
-      <is>
-        <t>N/A</t>
-      </is>
-    </oc>
-    <nc r="X46" t="inlineStr">
-      <is>
-        <t>Ready for review</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="75" sId="1" numFmtId="19">
-    <nc r="Y46">
-      <v>43895</v>
-    </nc>
-  </rcc>
-  <rcc rId="76" sId="1" numFmtId="19">
-    <nc r="AA46">
-      <v>43895</v>
-    </nc>
-  </rcc>
-  <rcc rId="77" sId="1">
-    <nc r="P46" t="inlineStr">
-      <is>
-        <t>thanh.nguyen-kim</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="78" sId="1" numFmtId="19">
-    <nc r="AB46">
-      <v>43895</v>
-    </nc>
-  </rcc>
-  <rcc rId="79" sId="1">
-    <nc r="AD46">
-      <v>100</v>
-    </nc>
-  </rcc>
-  <rcc rId="80" sId="1">
-    <nc r="AE46">
-      <v>100</v>
-    </nc>
-  </rcc>
-  <rcc rId="81" sId="1">
-    <nc r="AF46">
-      <v>100</v>
-    </nc>
-  </rcc>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_7ECC2B8E_6A82_42F5_8AB0_4A51C54EA5EC_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>COEM_Package_20200302!$M:$N</formula>
-  </rdn>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_7ECC2B8E_6A82_42F5_8AB0_4A51C54EA5EC_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>COEM_Package_20200302!$B$2:$AH$60</formula>
-  </rdn>
-  <rdn rId="0" localSheetId="3" customView="1" name="Z_7ECC2B8E_6A82_42F5_8AB0_4A51C54EA5EC_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Template!$B$2:$R$14</formula>
-  </rdn>
-  <rcv guid="{7ECC2B8E-6A82-42F5-8AB0-4A51C54EA5EC}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog16.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcv guid="{7ECC2B8E-6A82-42F5-8AB0-4A51C54EA5EC}" action="delete"/>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_7ECC2B8E_6A82_42F5_8AB0_4A51C54EA5EC_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>COEM_Package_20200302!$M:$N</formula>
-    <oldFormula>COEM_Package_20200302!$M:$N</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_7ECC2B8E_6A82_42F5_8AB0_4A51C54EA5EC_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>COEM_Package_20200302!$B$2:$AH$60</formula>
-    <oldFormula>COEM_Package_20200302!$B$2:$AH$60</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="3" customView="1" name="Z_7ECC2B8E_6A82_42F5_8AB0_4A51C54EA5EC_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Template!$B$2:$R$14</formula>
-    <oldFormula>Template!$B$2:$R$14</oldFormula>
-  </rdn>
-  <rcv guid="{7ECC2B8E-6A82-42F5-8AB0-4A51C54EA5EC}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog17.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="88" sId="1">
-    <nc r="U46">
-      <v>204</v>
-    </nc>
-  </rcc>
-  <rcc rId="89" sId="1">
-    <nc r="W46">
-      <v>2</v>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog18.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="90" sId="1">
-    <oc r="W46">
-      <v>2</v>
-    </oc>
-    <nc r="W46">
-      <v>3</v>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog19.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="91" sId="1">
-    <oc r="X47" t="inlineStr">
-      <is>
-        <t>N/A</t>
-      </is>
-    </oc>
-    <nc r="X47" t="inlineStr">
-      <is>
-        <t>Ongoing</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="92" sId="1" numFmtId="19">
-    <nc r="Y47">
-      <v>43895</v>
-    </nc>
-  </rcc>
-  <rcc rId="93" sId="1" numFmtId="19">
-    <nc r="AA47">
-      <v>43895</v>
-    </nc>
-  </rcc>
-  <rcv guid="{7ECC2B8E-6A82-42F5-8AB0-4A51C54EA5EC}" action="delete"/>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_7ECC2B8E_6A82_42F5_8AB0_4A51C54EA5EC_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>COEM_Package_20200302!$M:$N</formula>
-    <oldFormula>COEM_Package_20200302!$M:$N</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_7ECC2B8E_6A82_42F5_8AB0_4A51C54EA5EC_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>COEM_Package_20200302!$B$2:$AH$60</formula>
-    <oldFormula>COEM_Package_20200302!$B$2:$AH$60</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="3" customView="1" name="Z_7ECC2B8E_6A82_42F5_8AB0_4A51C54EA5EC_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Template!$B$2:$R$14</formula>
-    <oldFormula>Template!$B$2:$R$14</oldFormula>
-  </rdn>
-  <rcv guid="{7ECC2B8E-6A82-42F5-8AB0-4A51C54EA5EC}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcv guid="{7E0EA425-A420-4443-B9E0-CDF0AA9E5D09}" action="delete"/>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_7E0EA425_A420_4443_B9E0_CDF0AA9E5D09_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>COEM_Package_20200302!$M:$N</formula>
-    <oldFormula>COEM_Package_20200302!$M:$N</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_7E0EA425_A420_4443_B9E0_CDF0AA9E5D09_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>COEM_Package_20200302!$Q$2:$Q$105</formula>
-    <oldFormula>COEM_Package_20200302!$Q$2:$Q$105</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="3" customView="1" name="Z_7E0EA425_A420_4443_B9E0_CDF0AA9E5D09_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Template!$B$2:$R$14</formula>
-    <oldFormula>Template!$B$2:$R$14</oldFormula>
-  </rdn>
-  <rcv guid="{7E0EA425-A420-4443-B9E0-CDF0AA9E5D09}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog20.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="97" sId="1">
-    <nc r="P20" t="inlineStr">
-      <is>
-        <t>duong.nguyen</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{250915DF-0B97-45D7-B29D-7EED4C89C1C1}" action="delete"/>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_250915DF_0B97_45D7_B29D_7EED4C89C1C1_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>COEM_Package_20200302!$B$2:$AH$60</formula>
-    <oldFormula>COEM_Package_20200302!$B$2:$AH$60</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="3" customView="1" name="Z_250915DF_0B97_45D7_B29D_7EED4C89C1C1_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Template!$B$2:$R$14</formula>
-    <oldFormula>Template!$B$2:$R$14</oldFormula>
-  </rdn>
-  <rcv guid="{250915DF-0B97-45D7-B29D-7EED4C89C1C1}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog21.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="100" sId="1">
-    <nc r="P39" t="inlineStr">
-      <is>
-        <t>hieu.nguyen-trung</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{250915DF-0B97-45D7-B29D-7EED4C89C1C1}" action="delete"/>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_250915DF_0B97_45D7_B29D_7EED4C89C1C1_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>COEM_Package_20200302!$B$2:$AH$60</formula>
-    <oldFormula>COEM_Package_20200302!$B$2:$AH$60</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="3" customView="1" name="Z_250915DF_0B97_45D7_B29D_7EED4C89C1C1_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Template!$B$2:$R$14</formula>
-    <oldFormula>Template!$B$2:$R$14</oldFormula>
-  </rdn>
-  <rcv guid="{250915DF-0B97-45D7-B29D-7EED4C89C1C1}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog22.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="103" sId="1">
-    <nc r="W16">
-      <v>3</v>
-    </nc>
-  </rcc>
-  <rcc rId="104" sId="1">
-    <oc r="X16" t="inlineStr">
-      <is>
-        <t>N/A</t>
-      </is>
-    </oc>
-    <nc r="X16" t="inlineStr">
-      <is>
-        <t>Ready for review</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="105" sId="1">
-    <oc r="X31" t="inlineStr">
-      <is>
-        <t>N/A</t>
-      </is>
-    </oc>
-    <nc r="X31" t="inlineStr">
-      <is>
-        <t>Ongoing</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="106" sId="1" numFmtId="19">
-    <nc r="AA16">
-      <v>43895</v>
-    </nc>
-  </rcc>
-  <rcc rId="107" sId="1" numFmtId="19">
-    <nc r="AB16">
-      <v>43895</v>
-    </nc>
-  </rcc>
-  <rcc rId="108" sId="1">
-    <nc r="AC16" t="inlineStr">
-      <is>
-        <t>OK</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="109" sId="1">
-    <nc r="AD16">
-      <v>100</v>
-    </nc>
-  </rcc>
-  <rcc rId="110" sId="1">
-    <nc r="AE16">
-      <v>100</v>
-    </nc>
-  </rcc>
-  <rcc rId="111" sId="1">
-    <nc r="AF16">
-      <v>100</v>
-    </nc>
-  </rcc>
-  <rcv guid="{72A6EB0A-84D5-4B8A-AC51-54CCD061630B}" action="delete"/>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_72A6EB0A_84D5_4B8A_AC51_54CCD061630B_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>COEM_Package_20200302!$M:$N</formula>
-    <oldFormula>COEM_Package_20200302!$M:$N</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_72A6EB0A_84D5_4B8A_AC51_54CCD061630B_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>COEM_Package_20200302!$B$2:$AH$60</formula>
-    <oldFormula>COEM_Package_20200302!$B$2:$AH$60</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="3" customView="1" name="Z_72A6EB0A_84D5_4B8A_AC51_54CCD061630B_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Template!$B$2:$R$14</formula>
-    <oldFormula>Template!$B$2:$R$14</oldFormula>
-  </rdn>
-  <rcv guid="{72A6EB0A-84D5-4B8A-AC51-54CCD061630B}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog23.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="115" sId="1">
-    <nc r="P43" t="inlineStr">
-      <is>
-        <t>hieu.nguyen-trung</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="116" sId="1">
-    <oc r="P39" t="inlineStr">
-      <is>
-        <t>hieu.nguyen-trung</t>
-      </is>
-    </oc>
-    <nc r="P39"/>
-  </rcc>
-  <rcv guid="{250915DF-0B97-45D7-B29D-7EED4C89C1C1}" action="delete"/>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_250915DF_0B97_45D7_B29D_7EED4C89C1C1_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>COEM_Package_20200302!$B$2:$AH$60</formula>
-    <oldFormula>COEM_Package_20200302!$B$2:$AH$60</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="3" customView="1" name="Z_250915DF_0B97_45D7_B29D_7EED4C89C1C1_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Template!$B$2:$R$14</formula>
-    <oldFormula>Template!$B$2:$R$14</oldFormula>
-  </rdn>
-  <rcv guid="{250915DF-0B97-45D7-B29D-7EED4C89C1C1}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog24.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcv guid="{7ECC2B8E-6A82-42F5-8AB0-4A51C54EA5EC}" action="delete"/>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_7ECC2B8E_6A82_42F5_8AB0_4A51C54EA5EC_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>COEM_Package_20200302!$M:$N</formula>
-    <oldFormula>COEM_Package_20200302!$M:$N</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_7ECC2B8E_6A82_42F5_8AB0_4A51C54EA5EC_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>COEM_Package_20200302!$B$2:$AH$60</formula>
-    <oldFormula>COEM_Package_20200302!$B$2:$AH$60</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="3" customView="1" name="Z_7ECC2B8E_6A82_42F5_8AB0_4A51C54EA5EC_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Template!$B$2:$R$14</formula>
-    <oldFormula>Template!$B$2:$R$14</oldFormula>
-  </rdn>
-  <rcv guid="{7ECC2B8E-6A82-42F5-8AB0-4A51C54EA5EC}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog25.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="122" sId="1" numFmtId="19">
-    <nc r="AB18">
-      <v>43895</v>
-    </nc>
-  </rcc>
-  <rcc rId="123" sId="1">
-    <nc r="AC18" t="inlineStr">
-      <is>
-        <t>OK</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="124" sId="1">
-    <nc r="AD18">
-      <v>100</v>
-    </nc>
-  </rcc>
-  <rcc rId="125" sId="1">
-    <nc r="AE18">
-      <v>100</v>
-    </nc>
-  </rcc>
-  <rcc rId="126" sId="1">
-    <nc r="AF18">
-      <v>100</v>
-    </nc>
-  </rcc>
-  <rcc rId="127" sId="1">
-    <oc r="X18" t="inlineStr">
-      <is>
-        <t>Ongoing</t>
-      </is>
-    </oc>
-    <nc r="X18" t="inlineStr">
-      <is>
-        <t>Ready for review</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="128" sId="1">
-    <nc r="W18">
-      <v>2</v>
-    </nc>
-  </rcc>
-  <rcc rId="129" sId="1">
-    <nc r="U18">
-      <v>395</v>
-    </nc>
-  </rcc>
-  <rcv guid="{4E06BDBF-2CED-473B-850B-2A6C7311FF41}" action="delete"/>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_4E06BDBF_2CED_473B_850B_2A6C7311FF41_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>COEM_Package_20200302!$M:$N</formula>
-    <oldFormula>COEM_Package_20200302!$M:$N</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_4E06BDBF_2CED_473B_850B_2A6C7311FF41_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>COEM_Package_20200302!$Q$2:$Q$105</formula>
-    <oldFormula>COEM_Package_20200302!$Q$2:$Q$105</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="3" customView="1" name="Z_4E06BDBF_2CED_473B_850B_2A6C7311FF41_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Template!$B$2:$R$14</formula>
-    <oldFormula>Template!$B$2:$R$14</oldFormula>
-  </rdn>
-  <rcv guid="{4E06BDBF-2CED-473B-850B-2A6C7311FF41}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog26.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="133" sId="1">
-    <nc r="P52" t="inlineStr">
-      <is>
-        <t>thanh.nguyen-kim</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="134" sId="1">
-    <oc r="X52" t="inlineStr">
-      <is>
-        <t>N/A</t>
-      </is>
-    </oc>
-    <nc r="X52" t="inlineStr">
-      <is>
-        <t>Ongoing</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{4E06BDBF-2CED-473B-850B-2A6C7311FF41}" action="delete"/>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_4E06BDBF_2CED_473B_850B_2A6C7311FF41_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>COEM_Package_20200302!$M:$N</formula>
-    <oldFormula>COEM_Package_20200302!$M:$N</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_4E06BDBF_2CED_473B_850B_2A6C7311FF41_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>COEM_Package_20200302!$Q$2:$Q$105</formula>
-    <oldFormula>COEM_Package_20200302!$Q$2:$Q$105</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="3" customView="1" name="Z_4E06BDBF_2CED_473B_850B_2A6C7311FF41_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Template!$B$2:$R$14</formula>
-    <oldFormula>Template!$B$2:$R$14</oldFormula>
-  </rdn>
-  <rcv guid="{4E06BDBF-2CED-473B-850B-2A6C7311FF41}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog27.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="138" sId="1">
-    <nc r="U31">
-      <v>129</v>
-    </nc>
-  </rcc>
-  <rcc rId="139" sId="1">
-    <nc r="W31">
-      <v>2</v>
-    </nc>
-  </rcc>
-  <rcc rId="140" sId="1">
-    <oc r="X31" t="inlineStr">
-      <is>
-        <t>Ongoing</t>
-      </is>
-    </oc>
-    <nc r="X31" t="inlineStr">
-      <is>
-        <t>Ready for review</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="141" sId="1" numFmtId="19">
-    <nc r="AA31">
-      <v>43895</v>
-    </nc>
-  </rcc>
-  <rcc rId="142" sId="1" numFmtId="19">
-    <nc r="AB17">
-      <v>43895</v>
-    </nc>
-  </rcc>
-  <rcc rId="143" sId="1" numFmtId="19">
-    <nc r="AB31">
-      <v>43895</v>
-    </nc>
-  </rcc>
-  <rcc rId="144" sId="1">
-    <nc r="AC31" t="inlineStr">
-      <is>
-        <t>OK</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="145" sId="1" odxf="1" dxf="1">
-    <nc r="AD31">
-      <v>100</v>
-    </nc>
-    <odxf>
-      <font>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </odxf>
-    <ndxf>
-      <font>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </ndxf>
-  </rcc>
-  <rcc rId="146" sId="1" odxf="1" dxf="1">
-    <nc r="AE31">
-      <v>100</v>
-    </nc>
-    <ndxf>
-      <font>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </ndxf>
-  </rcc>
-  <rcc rId="147" sId="1" odxf="1" dxf="1">
-    <nc r="AF31">
-      <v>100</v>
-    </nc>
-    <ndxf>
-      <font>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </ndxf>
-  </rcc>
-  <rcv guid="{72A6EB0A-84D5-4B8A-AC51-54CCD061630B}" action="delete"/>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_72A6EB0A_84D5_4B8A_AC51_54CCD061630B_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>COEM_Package_20200302!$M:$N</formula>
-    <oldFormula>COEM_Package_20200302!$M:$N</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_72A6EB0A_84D5_4B8A_AC51_54CCD061630B_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>COEM_Package_20200302!$B$2:$AH$60</formula>
-    <oldFormula>COEM_Package_20200302!$B$2:$AH$60</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="3" customView="1" name="Z_72A6EB0A_84D5_4B8A_AC51_54CCD061630B_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Template!$B$2:$R$14</formula>
-    <oldFormula>Template!$B$2:$R$14</oldFormula>
-  </rdn>
-  <rcv guid="{72A6EB0A-84D5-4B8A-AC51-54CCD061630B}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="4" sId="1" quotePrefix="1">
-    <oc r="F51" t="inlineStr">
-      <is>
-        <t xml:space="preserve">rb\as\cnms_core\app\dcom\RBAPLCust\src\ESP </t>
-      </is>
-    </oc>
-    <nc r="F51" t="inlineStr">
-      <is>
-        <t>rb\as\cnms_core\app\dcom\RBAPLCust\src\ESP</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="5" sId="1" quotePrefix="1">
-    <oc r="F52" t="inlineStr">
-      <is>
-        <t xml:space="preserve">rb\as\cnms_core\app\dcom\RBAPLCust\src\ESP </t>
-      </is>
-    </oc>
-    <nc r="F52" t="inlineStr">
-      <is>
-        <t>rb\as\cnms_core\app\dcom\RBAPLCust\src\ESP</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="6" sId="1" quotePrefix="1">
-    <oc r="F53" t="inlineStr">
-      <is>
-        <t xml:space="preserve">rb\as\cnms_core\app\dcom\RBAPLCust\src\ESP </t>
-      </is>
-    </oc>
-    <nc r="F53" t="inlineStr">
-      <is>
-        <t>rb\as\cnms_core\app\dcom\RBAPLCust\src\ESP</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="7" sId="1" quotePrefix="1">
-    <oc r="F54" t="inlineStr">
-      <is>
-        <t xml:space="preserve">rb\as\cnms_core\app\dcom\RBAPLCust\src\ESP </t>
-      </is>
-    </oc>
-    <nc r="F54" t="inlineStr">
-      <is>
-        <t>rb\as\cnms_core\app\dcom\RBAPLCust\src\ESP</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="8" sId="1" quotePrefix="1">
-    <oc r="F55" t="inlineStr">
-      <is>
-        <t xml:space="preserve">rb\as\cnms_core\app\dcom\RBAPLCust\src\ESP </t>
-      </is>
-    </oc>
-    <nc r="F55" t="inlineStr">
-      <is>
-        <t>rb\as\cnms_core\app\dcom\RBAPLCust\src\ESP</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{250915DF-0B97-45D7-B29D-7EED4C89C1C1}" action="delete"/>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_250915DF_0B97_45D7_B29D_7EED4C89C1C1_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>COEM_Package_20200302!$Q$2:$Q$105</formula>
-    <oldFormula>COEM_Package_20200302!$B$2:$AH$60</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="3" customView="1" name="Z_250915DF_0B97_45D7_B29D_7EED4C89C1C1_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Template!$B$2:$R$14</formula>
-    <oldFormula>Template!$B$2:$R$14</oldFormula>
-  </rdn>
-  <rcv guid="{250915DF-0B97-45D7-B29D-7EED4C89C1C1}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="11" sId="1">
-    <oc r="H20" t="inlineStr">
-      <is>
-        <t xml:space="preserve">HDC_InvalidThrPos  </t>
-      </is>
-    </oc>
-    <nc r="H20" t="inlineStr">
-      <is>
-        <t>HDC_InvalidThrPos </t>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{250915DF-0B97-45D7-B29D-7EED4C89C1C1}" action="delete"/>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_250915DF_0B97_45D7_B29D_7EED4C89C1C1_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>COEM_Package_20200302!$Q$2:$Q$105</formula>
-    <oldFormula>COEM_Package_20200302!$Q$2:$Q$105</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="3" customView="1" name="Z_250915DF_0B97_45D7_B29D_7EED4C89C1C1_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Template!$B$2:$R$14</formula>
-    <oldFormula>Template!$B$2:$R$14</oldFormula>
-  </rdn>
-  <rcv guid="{250915DF-0B97-45D7-B29D-7EED4C89C1C1}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog5.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="14" sId="1">
-    <oc r="H20" t="inlineStr">
-      <is>
-        <t>HDC_InvalidThrPos </t>
-      </is>
-    </oc>
-    <nc r="H20" t="inlineStr">
-      <is>
-        <t>HDC_InvalidThrPos</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog6.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="15" sId="1">
-    <oc r="X17" t="inlineStr">
-      <is>
-        <t>N/A</t>
-      </is>
-    </oc>
-    <nc r="X17" t="inlineStr">
-      <is>
-        <t>Ready for review</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="16" sId="1">
-    <nc r="U17">
-      <v>254</v>
-    </nc>
-  </rcc>
-  <rcc rId="17" sId="1">
-    <nc r="W17">
-      <v>2</v>
-    </nc>
-  </rcc>
-  <rcc rId="18" sId="1" numFmtId="19">
-    <nc r="AA17">
-      <v>43895</v>
-    </nc>
-  </rcc>
-  <rcc rId="19" sId="1">
-    <nc r="AC17" t="inlineStr">
-      <is>
-        <t>OK</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="20" sId="1">
-    <nc r="AD17">
-      <v>100</v>
-    </nc>
-  </rcc>
-  <rcc rId="21" sId="1">
-    <nc r="AE17">
-      <v>100</v>
-    </nc>
-  </rcc>
-  <rcc rId="22" sId="1">
-    <nc r="AF17">
-      <v>100</v>
-    </nc>
-  </rcc>
-  <rcv guid="{72A6EB0A-84D5-4B8A-AC51-54CCD061630B}" action="delete"/>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_72A6EB0A_84D5_4B8A_AC51_54CCD061630B_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>COEM_Package_20200302!$M:$N</formula>
-    <oldFormula>COEM_Package_20200302!$M:$N</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_72A6EB0A_84D5_4B8A_AC51_54CCD061630B_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>COEM_Package_20200302!$B$2:$AH$60</formula>
-    <oldFormula>COEM_Package_20200302!$B$2:$AH$60</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="3" customView="1" name="Z_72A6EB0A_84D5_4B8A_AC51_54CCD061630B_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Template!$B$2:$R$14</formula>
-    <oldFormula>Template!$B$2:$R$14</oldFormula>
-  </rdn>
-  <rcv guid="{72A6EB0A-84D5-4B8A-AC51-54CCD061630B}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog7.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="26" sId="1">
-    <oc r="K7" t="inlineStr">
-      <is>
-        <t>1352219.zip</t>
-      </is>
-    </oc>
-    <nc r="K7">
-      <v>1352219</v>
-    </nc>
-  </rcc>
-  <rcc rId="27" sId="1">
-    <oc r="K20" t="inlineStr">
-      <is>
-        <t>1353762.zip</t>
-      </is>
-    </oc>
-    <nc r="K20">
-      <v>1353762</v>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog8.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="28" sId="1">
-    <oc r="AH11" t="inlineStr">
-      <is>
-        <t>Wrong path Component Name</t>
-      </is>
-    </oc>
-    <nc r="AH11"/>
-  </rcc>
-  <rcc rId="29" sId="1">
-    <oc r="AH12" t="inlineStr">
-      <is>
-        <t>Wrong path Component Name</t>
-      </is>
-    </oc>
-    <nc r="AH12"/>
-  </rcc>
-  <rcc rId="30" sId="1">
-    <oc r="AH13" t="inlineStr">
-      <is>
-        <t>Wrong path Component Name</t>
-      </is>
-    </oc>
-    <nc r="AH13"/>
-  </rcc>
-  <rcv guid="{72A6EB0A-84D5-4B8A-AC51-54CCD061630B}" action="delete"/>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_72A6EB0A_84D5_4B8A_AC51_54CCD061630B_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>COEM_Package_20200302!$M:$N</formula>
-    <oldFormula>COEM_Package_20200302!$M:$N</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_72A6EB0A_84D5_4B8A_AC51_54CCD061630B_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>COEM_Package_20200302!$B$2:$AH$60</formula>
-    <oldFormula>COEM_Package_20200302!$B$2:$AH$60</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="3" customView="1" name="Z_72A6EB0A_84D5_4B8A_AC51_54CCD061630B_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Template!$B$2:$R$14</formula>
-    <oldFormula>Template!$B$2:$R$14</oldFormula>
-  </rdn>
-  <rcv guid="{72A6EB0A-84D5-4B8A-AC51-54CCD061630B}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog9.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rfmt sheetId="1" xfDxf="1" sqref="F21" start="0" length="0">
-    <dxf>
-      <alignment horizontal="left" vertical="top" readingOrder="0"/>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-  </rfmt>
-  <rcc rId="34" sId="1" quotePrefix="1">
-    <oc r="F21" t="inlineStr">
-      <is>
-        <t>rb\as\rbcn\core\app\dcom\RBAPLCust\src\ibooster</t>
-      </is>
-    </oc>
-    <nc r="F21" t="inlineStr">
-      <is>
-        <t>rb\as\rbcn\core\app\dcom\RBAPLCust\src\iBooster</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="35" sId="1" quotePrefix="1">
-    <oc r="F22" t="inlineStr">
-      <is>
-        <t>rb\as\rbcn\core\app\dcom\RBAPLCust\src\ibooster</t>
-      </is>
-    </oc>
-    <nc r="F22" t="inlineStr">
-      <is>
-        <t>rb\as\rbcn\core\app\dcom\RBAPLCust\src\iBooster</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="36" sId="1" quotePrefix="1">
-    <oc r="F23" t="inlineStr">
-      <is>
-        <t>rb\as\rbcn\core\app\dcom\RBAPLCust\src\ibooster</t>
-      </is>
-    </oc>
-    <nc r="F23" t="inlineStr">
-      <is>
-        <t>rb\as\rbcn\core\app\dcom\RBAPLCust\src\iBooster</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{250915DF-0B97-45D7-B29D-7EED4C89C1C1}" action="delete"/>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_250915DF_0B97_45D7_B29D_7EED4C89C1C1_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>COEM_Package_20200302!$B$2:$AH$60</formula>
-    <oldFormula>COEM_Package_20200302!$Q$2:$Q$105</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="3" customView="1" name="Z_250915DF_0B97_45D7_B29D_7EED4C89C1C1_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Template!$B$2:$R$14</formula>
-    <oldFormula>Template!$B$2:$R$14</oldFormula>
-  </rdn>
-  <rcv guid="{250915DF-0B97-45D7-B29D-7EED4C89C1C1}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="4">
-  <userInfo guid="{787E104E-50D2-4281-B45D-59ECD890272A}" name="EXTERNAL Luu Cong Dac (Ban Vien, RBVH/EPS45)" id="-868131009" dateTime="2020-03-05T10:31:25"/>
-  <userInfo guid="{40348369-CCB6-40BF-99C0-32ADBE322A17}" name="EXTERNAL Do Phu Loc (Ban Vien, RBVH/EPS45)" id="-1167926284" dateTime="2020-03-05T11:43:45"/>
-  <userInfo guid="{E2751506-0EB7-48EC-9B7D-DAAB524708E2}" name="EXTERNAL Nguyen Tai Hau (Ban Vien, RBVH/EPS45)" id="-1204129830" dateTime="2020-03-05T17:29:57"/>
-  <userInfo guid="{40348369-CCB6-40BF-99C0-32ADBE322A17}" name="EXTERNAL Nguyen Kim Thanh (Ban Vien, RBVH/EPS45)" id="-41229117" dateTime="2020-03-05T17:57:43"/>
-</users>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2949,6 +1495,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2984,6 +1547,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3159,12 +1739,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:AH105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF34" sqref="AF34"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3177,11 +1757,12 @@
     <col min="8" max="8" width="59.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="38.85546875" customWidth="1"/>
     <col min="10" max="10" width="19.28515625" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.140625" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="35.140625" hidden="1" customWidth="1"/>
-    <col min="15" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="16" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13.5703125" bestFit="1" customWidth="1"/>
@@ -3302,7 +1883,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="2:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B3" s="30">
         <v>1</v>
       </c>
@@ -3495,7 +2076,7 @@
       </c>
       <c r="AH4" s="30"/>
     </row>
-    <row r="5" spans="2:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B5" s="39">
         <f t="shared" ref="B5:B60" si="0">B4+1</f>
         <v>3</v>
@@ -3596,7 +2177,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="6" spans="2:34" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="39">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3696,7 +2277,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="7" spans="2:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B7" s="39">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3797,7 +2378,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="2:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B8" s="39">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3997,7 +2578,7 @@
       </c>
       <c r="AH9" s="30"/>
     </row>
-    <row r="10" spans="2:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B10" s="39">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4287,7 +2868,7 @@
       <c r="AG12" s="30"/>
       <c r="AH12" s="30"/>
     </row>
-    <row r="13" spans="2:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B13" s="39">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -4341,12 +2922,16 @@
       <c r="T13" s="30">
         <v>90</v>
       </c>
-      <c r="U13" s="30"/>
+      <c r="U13" s="30">
+        <v>90</v>
+      </c>
       <c r="V13" s="30">
         <f>ROUNDDOWN(T13/HLOOKUP(D13,Table!$C$3:$D$4,2,0)*8,2)</f>
         <v>1.6</v>
       </c>
-      <c r="W13" s="30"/>
+      <c r="W13" s="30">
+        <v>3</v>
+      </c>
       <c r="X13" s="30" t="s">
         <v>21</v>
       </c>
@@ -4471,7 +3056,7 @@
       </c>
       <c r="AH14" s="30"/>
     </row>
-    <row r="15" spans="2:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B15" s="39">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -4735,7 +3320,7 @@
       <c r="AG17" s="30"/>
       <c r="AH17" s="30"/>
     </row>
-    <row r="18" spans="2:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B18" s="39">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -4829,7 +3414,7 @@
       <c r="AG18" s="30"/>
       <c r="AH18" s="30"/>
     </row>
-    <row r="19" spans="2:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B19" s="39">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -4923,7 +3508,7 @@
       <c r="AG19" s="30"/>
       <c r="AH19" s="30"/>
     </row>
-    <row r="20" spans="2:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B20" s="39">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -5000,7 +3585,7 @@
       <c r="AG20" s="30"/>
       <c r="AH20" s="30"/>
     </row>
-    <row r="21" spans="2:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B21" s="39">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -5076,7 +3661,7 @@
       <c r="AG21" s="30"/>
       <c r="AH21" s="30"/>
     </row>
-    <row r="22" spans="2:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B22" s="39">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -5152,7 +3737,7 @@
       <c r="AG22" s="30"/>
       <c r="AH22" s="30"/>
     </row>
-    <row r="23" spans="2:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B23" s="39">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -5228,7 +3813,7 @@
       <c r="AG23" s="30"/>
       <c r="AH23" s="30"/>
     </row>
-    <row r="24" spans="2:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B24" s="39">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -5304,7 +3889,7 @@
       <c r="AG24" s="30"/>
       <c r="AH24" s="30"/>
     </row>
-    <row r="25" spans="2:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B25" s="39">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -5378,7 +3963,7 @@
       <c r="AG25" s="30"/>
       <c r="AH25" s="30"/>
     </row>
-    <row r="26" spans="2:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B26" s="39">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -5452,7 +4037,7 @@
       <c r="AG26" s="30"/>
       <c r="AH26" s="30"/>
     </row>
-    <row r="27" spans="2:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B27" s="39">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -5526,7 +4111,7 @@
       <c r="AG27" s="30"/>
       <c r="AH27" s="30"/>
     </row>
-    <row r="28" spans="2:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B28" s="39">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -5600,7 +4185,7 @@
       <c r="AG28" s="30"/>
       <c r="AH28" s="30"/>
     </row>
-    <row r="29" spans="2:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B29" s="39">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -5674,7 +4259,7 @@
       <c r="AG29" s="30"/>
       <c r="AH29" s="30"/>
     </row>
-    <row r="30" spans="2:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B30" s="39">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -6296,7 +4881,7 @@
       <c r="AG37" s="30"/>
       <c r="AH37" s="30"/>
     </row>
-    <row r="38" spans="2:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B38" s="39">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -6370,7 +4955,7 @@
       <c r="AG38" s="30"/>
       <c r="AH38" s="30"/>
     </row>
-    <row r="39" spans="2:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B39" s="39">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -6444,7 +5029,7 @@
       <c r="AG39" s="30"/>
       <c r="AH39" s="30"/>
     </row>
-    <row r="40" spans="2:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B40" s="39">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -6518,7 +5103,7 @@
       <c r="AG40" s="30"/>
       <c r="AH40" s="30"/>
     </row>
-    <row r="41" spans="2:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B41" s="39">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -6592,7 +5177,7 @@
       <c r="AG41" s="30"/>
       <c r="AH41" s="30"/>
     </row>
-    <row r="42" spans="2:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B42" s="39">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -6666,7 +5251,7 @@
       <c r="AG42" s="30"/>
       <c r="AH42" s="30"/>
     </row>
-    <row r="43" spans="2:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B43" s="39">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -6742,7 +5327,7 @@
       <c r="AG43" s="30"/>
       <c r="AH43" s="30"/>
     </row>
-    <row r="44" spans="2:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B44" s="39">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -6816,7 +5401,7 @@
       <c r="AG44" s="30"/>
       <c r="AH44" s="30"/>
     </row>
-    <row r="45" spans="2:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B45" s="39">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -6890,7 +5475,7 @@
       <c r="AG45" s="30"/>
       <c r="AH45" s="30"/>
     </row>
-    <row r="46" spans="2:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B46" s="39">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -6982,7 +5567,7 @@
       <c r="AG46" s="30"/>
       <c r="AH46" s="30"/>
     </row>
-    <row r="47" spans="2:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B47" s="39">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -7060,7 +5645,7 @@
       <c r="AG47" s="30"/>
       <c r="AH47" s="30"/>
     </row>
-    <row r="48" spans="2:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B48" s="39">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -7134,7 +5719,7 @@
       <c r="AG48" s="30"/>
       <c r="AH48" s="30"/>
     </row>
-    <row r="49" spans="2:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B49" s="39">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -7208,7 +5793,7 @@
       <c r="AG49" s="30"/>
       <c r="AH49" s="30"/>
     </row>
-    <row r="50" spans="2:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B50" s="39">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -7282,7 +5867,7 @@
       <c r="AG50" s="30"/>
       <c r="AH50" s="30"/>
     </row>
-    <row r="51" spans="2:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B51" s="39">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -7356,7 +5941,7 @@
       <c r="AG51" s="30"/>
       <c r="AH51" s="30"/>
     </row>
-    <row r="52" spans="2:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B52" s="39">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -7432,7 +6017,7 @@
       <c r="AG52" s="30"/>
       <c r="AH52" s="30"/>
     </row>
-    <row r="53" spans="2:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B53" s="39">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -7506,7 +6091,7 @@
       <c r="AG53" s="30"/>
       <c r="AH53" s="30"/>
     </row>
-    <row r="54" spans="2:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B54" s="39">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -7580,7 +6165,7 @@
       <c r="AG54" s="30"/>
       <c r="AH54" s="30"/>
     </row>
-    <row r="55" spans="2:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B55" s="39">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -7654,7 +6239,7 @@
       <c r="AG55" s="30"/>
       <c r="AH55" s="30"/>
     </row>
-    <row r="56" spans="2:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B56" s="39">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -7728,7 +6313,7 @@
       <c r="AG56" s="30"/>
       <c r="AH56" s="30"/>
     </row>
-    <row r="57" spans="2:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B57" s="39">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -7802,7 +6387,7 @@
       <c r="AG57" s="30"/>
       <c r="AH57" s="30"/>
     </row>
-    <row r="58" spans="2:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B58" s="39">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -7876,7 +6461,7 @@
       <c r="AG58" s="30"/>
       <c r="AH58" s="30"/>
     </row>
-    <row r="59" spans="2:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B59" s="39">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -7950,7 +6535,7 @@
       <c r="AG59" s="30"/>
       <c r="AH59" s="30"/>
     </row>
-    <row r="60" spans="2:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B60" s="39">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -9221,11 +7806,11 @@
       </c>
       <c r="F102" s="3">
         <f>1/8*(SUMIFS($W$3:$W$82,$D$3:$D$82,Table!$D$3,$P$3:$P$82,C102)-SUM(SUMIFS($W$3:$W$82,$D$3:$D$82,Table!$D$3,$P$3:$P$82,C102,$X$3:$X$82,{"Ongoing","N/A"})))</f>
-        <v>1.75</v>
+        <v>2.125</v>
       </c>
       <c r="G102" s="3">
         <f t="shared" si="5"/>
-        <v>282.28571428571428</v>
+        <v>232.47058823529412</v>
       </c>
       <c r="H102" s="7">
         <f t="shared" si="6"/>
@@ -9316,35 +7901,36 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:AH60">
-    <filterColumn colId="14">
-      <filters>
-        <filter val="loc.do-phu"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B2:AH60" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <customSheetViews>
-    <customSheetView guid="{250915DF-0B97-45D7-B29D-7EED4C89C1C1}" scale="70" topLeftCell="G16">
-      <selection activeCell="P41" sqref="P41"/>
+    <customSheetView guid="{C28B8C76-215A-4052-8346-32215D9BAFA9}" scale="85" filter="1" showAutoFilter="1" hiddenColumns="1" topLeftCell="A70">
+      <selection activeCell="U7" sqref="U7:U46"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
+      <autoFilter ref="B2:AH60" xr:uid="{00000000-0009-0000-0000-000000000000}">
+        <filterColumn colId="14">
+          <filters>
+            <filter val="thanh.nguyen-kim"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
     </customSheetView>
-    <customSheetView guid="{7ECC2B8E-6A82-42F5-8AB0-4A51C54EA5EC}" hiddenColumns="1" topLeftCell="L22">
-      <selection activeCell="AB47" sqref="AB47"/>
+    <customSheetView guid="{60D2C030-4E31-4E07-8E1C-44D2EE84B177}" scale="85" showAutoFilter="1" hiddenColumns="1" topLeftCell="J1">
+      <selection activeCell="AE25" sqref="AE25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
+      <autoFilter ref="B2:AE78" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{4E06BDBF-2CED-473B-850B-2A6C7311FF41}" showAutoFilter="1" hiddenColumns="1" topLeftCell="I28">
-      <selection activeCell="W54" sqref="W54"/>
+    <customSheetView guid="{7E0EA425-A420-4443-B9E0-CDF0AA9E5D09}" showAutoFilter="1" hiddenColumns="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
-      <autoFilter ref="Q2:Q105"/>
+      <autoFilter ref="Q2:Q105" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
     <customSheetView guid="{72A6EB0A-84D5-4B8A-AC51-54CCD061630B}" scale="85" filter="1" showAutoFilter="1" hiddenColumns="1" topLeftCell="L1">
       <selection activeCell="AF34" sqref="AF34"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId4"/>
-      <autoFilter ref="B2:AH60">
+      <autoFilter ref="B2:AH60" xr:uid="{00000000-0000-0000-0000-000000000000}">
         <filterColumn colId="14">
           <filters>
             <filter val="loc.do-phu"/>
@@ -9352,16 +7938,21 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{7E0EA425-A420-4443-B9E0-CDF0AA9E5D09}" showAutoFilter="1" hiddenColumns="1">
+    <customSheetView guid="{4E06BDBF-2CED-473B-850B-2A6C7311FF41}" showAutoFilter="1" hiddenColumns="1" topLeftCell="I28">
+      <selection activeCell="W54" sqref="W54"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId5"/>
-      <autoFilter ref="Q2:Q105"/>
+      <autoFilter ref="Q2:Q105" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{60D2C030-4E31-4E07-8E1C-44D2EE84B177}" scale="85" showAutoFilter="1" hiddenColumns="1" topLeftCell="J1">
-      <selection activeCell="AE25" sqref="AE25"/>
+    <customSheetView guid="{7ECC2B8E-6A82-42F5-8AB0-4A51C54EA5EC}" hiddenColumns="1" topLeftCell="L22">
+      <selection activeCell="AB47" sqref="AB47"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId6"/>
-      <autoFilter ref="B2:AE78"/>
+    </customSheetView>
+    <customSheetView guid="{250915DF-0B97-45D7-B29D-7EED4C89C1C1}" scale="70" topLeftCell="G16">
+      <selection activeCell="P41" sqref="P41"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId7"/>
     </customSheetView>
   </customSheetViews>
   <conditionalFormatting sqref="H86:H93">
@@ -9394,16 +7985,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC3:AC82">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC3:AC82" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"OK,NG"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:R82">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:R82" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
-  <legacyDrawing r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
+  <legacyDrawing r:id="rId9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -9469,19 +8060,19 @@
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>Table!$C$24:$C$30</xm:f>
           </x14:formula1>
           <xm:sqref>X3:X82</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
             <xm:f>Table!$C$8:$C$9</xm:f>
           </x14:formula1>
           <xm:sqref>D3:D82</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
           <x14:formula1>
             <xm:f>Table!$C$13:$C$20</xm:f>
           </x14:formula1>
@@ -9494,7 +8085,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -9505,7 +8096,23 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <customSheetViews>
-    <customSheetView guid="{250915DF-0B97-45D7-B29D-7EED4C89C1C1}">
+    <customSheetView guid="{C28B8C76-215A-4052-8346-32215D9BAFA9}">
+      <selection activeCell="C39" sqref="C39"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{60D2C030-4E31-4E07-8E1C-44D2EE84B177}">
+      <selection activeCell="C39" sqref="C39"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{7E0EA425-A420-4443-B9E0-CDF0AA9E5D09}">
+      <selection activeCell="C39" sqref="C39"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{72A6EB0A-84D5-4B8A-AC51-54CCD061630B}">
+      <selection activeCell="C39" sqref="C39"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{4E06BDBF-2CED-473B-850B-2A6C7311FF41}">
       <selection activeCell="C39" sqref="C39"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -9513,19 +8120,7 @@
       <selection activeCell="C39" sqref="C39"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{4E06BDBF-2CED-473B-850B-2A6C7311FF41}">
-      <selection activeCell="C39" sqref="C39"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{72A6EB0A-84D5-4B8A-AC51-54CCD061630B}">
-      <selection activeCell="C39" sqref="C39"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{7E0EA425-A420-4443-B9E0-CDF0AA9E5D09}">
-      <selection activeCell="C39" sqref="C39"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{60D2C030-4E31-4E07-8E1C-44D2EE84B177}">
+    <customSheetView guid="{250915DF-0B97-45D7-B29D-7EED4C89C1C1}">
       <selection activeCell="C39" sqref="C39"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -9535,12 +8130,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:Y38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10706,17 +9301,17 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{250915DF-0B97-45D7-B29D-7EED4C89C1C1}" scale="85">
-      <selection activeCell="F23" sqref="F23"/>
+    <customSheetView guid="{C28B8C76-215A-4052-8346-32215D9BAFA9}" scale="85">
+      <selection activeCell="E26" sqref="E26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{7ECC2B8E-6A82-42F5-8AB0-4A51C54EA5EC}" scale="85">
+    <customSheetView guid="{60D2C030-4E31-4E07-8E1C-44D2EE84B177}" scale="85">
       <selection activeCell="G9" sqref="G9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{4E06BDBF-2CED-473B-850B-2A6C7311FF41}" scale="85">
+    <customSheetView guid="{7E0EA425-A420-4443-B9E0-CDF0AA9E5D09}" scale="85">
       <selection activeCell="G9" sqref="G9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -10726,15 +9321,20 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId4"/>
     </customSheetView>
-    <customSheetView guid="{7E0EA425-A420-4443-B9E0-CDF0AA9E5D09}" scale="85">
+    <customSheetView guid="{4E06BDBF-2CED-473B-850B-2A6C7311FF41}" scale="85">
       <selection activeCell="G9" sqref="G9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId5"/>
     </customSheetView>
-    <customSheetView guid="{60D2C030-4E31-4E07-8E1C-44D2EE84B177}" scale="85">
+    <customSheetView guid="{7ECC2B8E-6A82-42F5-8AB0-4A51C54EA5EC}" scale="85">
       <selection activeCell="G9" sqref="G9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId6"/>
+    </customSheetView>
+    <customSheetView guid="{250915DF-0B97-45D7-B29D-7EED4C89C1C1}" scale="85">
+      <selection activeCell="F23" sqref="F23"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId7"/>
     </customSheetView>
   </customSheetViews>
   <conditionalFormatting sqref="H19:H30">
@@ -10754,7 +9354,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -10820,19 +9420,19 @@
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
           <x14:formula1>
             <xm:f>Table!$C$8:$C$9</xm:f>
           </x14:formula1>
           <xm:sqref>D3:D15</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>
             <xm:f>Table!$C$24:$C$30</xm:f>
           </x14:formula1>
           <xm:sqref>Q3:Q15</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000002000000}">
           <x14:formula1>
             <xm:f>Table!$C$13:$C$20</xm:f>
           </x14:formula1>
@@ -10845,12 +9445,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B2:E30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:C29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11086,11 +9686,19 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{250915DF-0B97-45D7-B29D-7EED4C89C1C1}" topLeftCell="A10">
-      <selection activeCell="C29" sqref="C29"/>
+    <customSheetView guid="{C28B8C76-215A-4052-8346-32215D9BAFA9}">
+      <selection activeCell="D2" sqref="D2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{7ECC2B8E-6A82-42F5-8AB0-4A51C54EA5EC}" topLeftCell="A13">
+    <customSheetView guid="{60D2C030-4E31-4E07-8E1C-44D2EE84B177}" topLeftCell="A19">
+      <selection activeCell="B24" sqref="B24:C29"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{7E0EA425-A420-4443-B9E0-CDF0AA9E5D09}" topLeftCell="A13">
+      <selection activeCell="B24" sqref="B24:C29"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{72A6EB0A-84D5-4B8A-AC51-54CCD061630B}" topLeftCell="A13">
       <selection activeCell="B24" sqref="B24:C29"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -11098,16 +9706,12 @@
       <selection activeCell="B24" sqref="B24:C29"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{72A6EB0A-84D5-4B8A-AC51-54CCD061630B}" topLeftCell="A13">
+    <customSheetView guid="{7ECC2B8E-6A82-42F5-8AB0-4A51C54EA5EC}" topLeftCell="A13">
       <selection activeCell="B24" sqref="B24:C29"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{7E0EA425-A420-4443-B9E0-CDF0AA9E5D09}" topLeftCell="A13">
-      <selection activeCell="B24" sqref="B24:C29"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{60D2C030-4E31-4E07-8E1C-44D2EE84B177}" topLeftCell="A19">
-      <selection activeCell="B24" sqref="B24:C29"/>
+    <customSheetView guid="{250915DF-0B97-45D7-B29D-7EED4C89C1C1}" topLeftCell="A10">
+      <selection activeCell="C29" sqref="C29"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -11116,12 +9720,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11263,30 +9867,30 @@
       <c r="C15" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="51" t="s">
+      <c r="D15" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C16" s="10">
         <v>1</v>
       </c>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C17" s="10">
         <v>2</v>
       </c>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
@@ -11297,30 +9901,30 @@
       <c r="C20" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="51" t="s">
+      <c r="D20" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C21" s="10">
         <v>1</v>
       </c>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C22" s="10">
         <v>2</v>
       </c>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
@@ -11406,11 +10010,19 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{250915DF-0B97-45D7-B29D-7EED4C89C1C1}" topLeftCell="A4">
-      <selection activeCell="D22" sqref="D22:G22"/>
+    <customSheetView guid="{C28B8C76-215A-4052-8346-32215D9BAFA9}">
+      <selection activeCell="E11" sqref="E11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{7ECC2B8E-6A82-42F5-8AB0-4A51C54EA5EC}">
+    <customSheetView guid="{60D2C030-4E31-4E07-8E1C-44D2EE84B177}" topLeftCell="A16">
+      <selection activeCell="D6" sqref="D6"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{7E0EA425-A420-4443-B9E0-CDF0AA9E5D09}" topLeftCell="A16">
+      <selection activeCell="D6" sqref="D6"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{72A6EB0A-84D5-4B8A-AC51-54CCD061630B}">
       <selection activeCell="H33" sqref="H33"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -11418,16 +10030,12 @@
       <selection activeCell="D6" sqref="D6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{72A6EB0A-84D5-4B8A-AC51-54CCD061630B}">
+    <customSheetView guid="{7ECC2B8E-6A82-42F5-8AB0-4A51C54EA5EC}">
       <selection activeCell="H33" sqref="H33"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{7E0EA425-A420-4443-B9E0-CDF0AA9E5D09}" topLeftCell="A16">
-      <selection activeCell="D6" sqref="D6"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{60D2C030-4E31-4E07-8E1C-44D2EE84B177}" topLeftCell="A16">
-      <selection activeCell="D6" sqref="D6"/>
+    <customSheetView guid="{250915DF-0B97-45D7-B29D-7EED4C89C1C1}" topLeftCell="A4">
+      <selection activeCell="D22" sqref="D22:G22"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -11444,7 +10052,298 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC582FE-DDA0-4A6D-95EB-206CDAAAE9A3}">
+  <dimension ref="A1:G35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="30.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="11">
+        <v>43864</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C5" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="13">
+        <v>1</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="13">
+        <v>2</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="50">
+        <v>1</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="50">
+        <v>2</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="50">
+        <v>1</v>
+      </c>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C17" s="50">
+        <v>2</v>
+      </c>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C20" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C21" s="50">
+        <v>1</v>
+      </c>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C22" s="50">
+        <v>2</v>
+      </c>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C25" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C26" s="50">
+        <v>1</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="55">
+        <v>43899</v>
+      </c>
+      <c r="F26" s="50"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="50"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C30" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C33" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -11507,7 +10406,22 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{250915DF-0B97-45D7-B29D-7EED4C89C1C1}">
+    <customSheetView guid="{C28B8C76-215A-4052-8346-32215D9BAFA9}">
+      <selection activeCell="B6" sqref="B6:C6"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{60D2C030-4E31-4E07-8E1C-44D2EE84B177}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{7E0EA425-A420-4443-B9E0-CDF0AA9E5D09}">
+      <selection activeCell="B6" sqref="B6:C6"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{72A6EB0A-84D5-4B8A-AC51-54CCD061630B}">
+      <selection activeCell="B6" sqref="B6:C6"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{4E06BDBF-2CED-473B-850B-2A6C7311FF41}">
       <selection activeCell="B6" sqref="B6:C6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -11515,19 +10429,8 @@
       <selection activeCell="B6" sqref="B6:C6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{4E06BDBF-2CED-473B-850B-2A6C7311FF41}">
+    <customSheetView guid="{250915DF-0B97-45D7-B29D-7EED4C89C1C1}">
       <selection activeCell="B6" sqref="B6:C6"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{72A6EB0A-84D5-4B8A-AC51-54CCD061630B}">
-      <selection activeCell="B6" sqref="B6:C6"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{7E0EA425-A420-4443-B9E0-CDF0AA9E5D09}">
-      <selection activeCell="B6" sqref="B6:C6"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{60D2C030-4E31-4E07-8E1C-44D2EE84B177}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
